--- a/bruno/modules/databases/vinhos/wine_normalized_no_outlier.xlsx
+++ b/bruno/modules/databases/vinhos/wine_normalized_no_outlier.xlsx
@@ -112,7 +112,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -126,4491 +126,6125 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>0.9463</v>
+        <v>0.8246</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0.268</v>
+        <v>0.218</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>0.5288</v>
+        <v>0.5984</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0.0917</v>
+        <v>0.2785</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1</v>
+        <v>0.8906</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>0.7025</v>
+        <v>0.6276</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.7896</v>
+        <v>0.7577</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0.3191</v>
+        <v>0.283</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>0.8969</v>
+        <v>0.7373</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>0.5253</v>
+        <v>0.4719</v>
       </c>
       <c r="K1" s="0" t="n">
-        <v>0.6</v>
+        <v>0.5495</v>
       </c>
       <c r="L1" s="0" t="n">
-        <v>0.97</v>
+        <v>0.9707</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0.6141</v>
+        <v>0.5234</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.511</v>
+        <v>0.2337</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.9519</v>
+        <v>0.3607</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.5872</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.8163</v>
+        <v>0.4688</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.7025</v>
+        <v>0.5759</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.6768</v>
+        <v>0.6741</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.5532</v>
+        <v>0.2453</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.6546</v>
+        <v>0.3412</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.3663</v>
+        <v>0.3355</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>0.6</v>
+        <v>0.5604</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.5993</v>
+        <v>0.7802</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>0.9362</v>
+        <v>0.5117</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.2818</v>
+        <v>0.364</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.5481</v>
+        <v>0.7951</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.055</v>
+        <v>0.4684</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.6939</v>
+        <v>0.4844</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.8967</v>
+        <v>0.6276</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.8902</v>
+        <v>0.8078</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.4468</v>
+        <v>0.3208</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.732</v>
+        <v>0.9412</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.659</v>
+        <v>0.4762</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.6125</v>
+        <v>0.5385</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.5693</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>1</v>
+        <v>0.8655</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.3122</v>
+        <v>0.2719</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.5481</v>
+        <v>0.6557</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>0.3544</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.3673</v>
+        <v>0.6719</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.5785</v>
+        <v>0.9897</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.625</v>
+        <v>0.8774</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.3617</v>
+        <v>0.2075</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.7371</v>
+        <v>0.6941</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.4783</v>
+        <v>0.7056</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.575</v>
+        <v>0.3516</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.8427</v>
+        <v>0.7985</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>0.8893</v>
+        <v>0.5351</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.3895</v>
+        <v>0.4157</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.7019</v>
+        <v>0.959</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.2752</v>
+        <v>0.6203</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.8776</v>
+        <v>0.75</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.6198</v>
+        <v>0.6276</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.622</v>
+        <v>0.6546</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.383</v>
+        <v>0.4906</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.3608</v>
+        <v>0.5529</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.4542</v>
+        <v>0.329</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.625</v>
+        <v>0.5495</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.8427</v>
+        <v>0.6081</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>0.8221</v>
+        <v>0.8158</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.1685</v>
+        <v>0.2292</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.375</v>
+        <v>0.6148</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.1284</v>
+        <v>0.2532</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.4082</v>
+        <v>0.6562</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.7769</v>
+        <v>0.7897</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.8171</v>
+        <v>0.8496</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.1915</v>
+        <v>0.3962</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.6701</v>
+        <v>0.6118</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.7157</v>
+        <v>0.592</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.5625</v>
+        <v>0.5604</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.8315</v>
+        <v>0.5788</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>0.9027</v>
+        <v>0.8713</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.3923</v>
+        <v>0.2539</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.4038</v>
+        <v>0.6148</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.3119</v>
+        <v>0.2152</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.551</v>
+        <v>0.4062</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.7645</v>
+        <v>0.5241</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.8689</v>
+        <v>0.6072</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.1915</v>
+        <v>0.3208</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.9433</v>
+        <v>0.6157</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.5386</v>
+        <v>0.4297</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.8625</v>
+        <v>0.5275</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.6891</v>
+        <v>0.8462</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>0.9094</v>
+        <v>0.7749</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.2044</v>
+        <v>0.3169</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.4231</v>
+        <v>0.7459</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.2018</v>
+        <v>0.4051</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0.3469</v>
+        <v>0.7969</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.4545</v>
+        <v>0.5586</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.5976</v>
+        <v>0.6045</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.2766</v>
+        <v>0.3396</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.5258</v>
+        <v>0.3294</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.4482</v>
+        <v>0.408</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.7625</v>
+        <v>0.5714</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.5581</v>
+        <v>0.8462</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>0.7852</v>
+        <v>1</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.2735</v>
+        <v>0.2022</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.5096</v>
+        <v>0.3852</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.1284</v>
+        <v>0.1772</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0.2245</v>
+        <v>0.4219</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.6198</v>
+        <v>0.6276</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.6982</v>
+        <v>0.7354</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.3404</v>
+        <v>0.3019</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.6495</v>
+        <v>0.6157</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.5205</v>
+        <v>0.4242</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.7375</v>
+        <v>0.5934</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.588</v>
+        <v>0.5788</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>0.745</v>
+        <v>0.7164</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.2956</v>
+        <v>0.1371</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.7885</v>
+        <v>0.4672</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.2385</v>
+        <v>0.3038</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0.6939</v>
+        <v>0.4375</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.7231</v>
+        <v>0.6897</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.7439</v>
+        <v>0.7827</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.3617</v>
+        <v>0.1698</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.4691</v>
+        <v>0.5647</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.7253</v>
+        <v>0.6429</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.9</v>
+        <v>0.5165</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.5805</v>
+        <v>0.8352</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>0.9698</v>
+        <v>0.7865</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.326</v>
+        <v>0.3191</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.8077</v>
+        <v>0.4918</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.4954</v>
+        <v>0.4304</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0.8571</v>
+        <v>0.5469</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.7025</v>
+        <v>0.6793</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.814</v>
+        <v>0.8301</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.4255</v>
+        <v>0.1698</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.732</v>
+        <v>0.7725</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.5928</v>
+        <v>0.4838</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.6375</v>
+        <v>0.7802</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.4944</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>0.8121</v>
+        <v>0.7924</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.2293</v>
+        <v>0.1663</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.7115</v>
+        <v>0.5082</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.4954</v>
+        <v>0.3544</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0.7551</v>
+        <v>0.3906</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.7645</v>
+        <v>0.4207</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.8933</v>
+        <v>0.5822</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.5745</v>
+        <v>0.2453</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.6031</v>
+        <v>0.4549</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.641</v>
+        <v>0.4026</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.7125</v>
+        <v>0.6923</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.4644</v>
+        <v>0.5678</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>0.7483</v>
+        <v>0.6842</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.6519</v>
+        <v>0.2225</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.6538</v>
+        <v>0.582</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.055</v>
+        <v>0.3038</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.7755</v>
+        <v>0.2969</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.6612</v>
+        <v>0.5586</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.7805</v>
+        <v>0.6741</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.0851</v>
+        <v>0.3019</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.5722</v>
+        <v>0.549</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.4602</v>
+        <v>0.4675</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.5</v>
+        <v>0.6703</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.7603</v>
+        <v>0.5971</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>0.8893</v>
+        <v>0.9766</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.2459</v>
+        <v>0.2225</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.3846</v>
+        <v>0.5656</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.1284</v>
+        <v>0.0127</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.9796</v>
+        <v>0.3281</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.7851</v>
+        <v>0.731</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.8232</v>
+        <v>0.9331</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.234</v>
+        <v>0.566</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.799</v>
+        <v>0.9412</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.5265</v>
+        <v>0.4459</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.6625</v>
+        <v>0.7802</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.8914</v>
+        <v>0.5348</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>0.5101</v>
+        <v>0.8684</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.8453</v>
+        <v>0.2539</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.7404</v>
+        <v>0.5574</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.367</v>
+        <v>0.0506</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.4898</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.5413</v>
+        <v>0.8</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.5915</v>
+        <v>0.9192</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.2553</v>
+        <v>0.3019</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.7371</v>
+        <v>1</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.388</v>
+        <v>0.6732</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.5875</v>
+        <v>0.7253</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.8202</v>
+        <v>0.6337</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>0.7718</v>
+        <v>0.6491</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.3094</v>
+        <v>0.2404</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.4615</v>
+        <v>0.8197</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.1835</v>
+        <v>0.3797</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4694</v>
+        <v>0.6562</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.624</v>
+        <v>0.6448</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.7348</v>
+        <v>0.7159</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.2979</v>
+        <v>0.3208</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.5876</v>
+        <v>0.4118</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.3036</v>
+        <v>0.6515</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.6875</v>
+        <v>0.8132</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>1</v>
+        <v>0.5897</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>0.4832</v>
+        <v>0.845</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.2376</v>
+        <v>0.2652</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.6154</v>
+        <v>0.8361</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2936</v>
+        <v>0.557</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3469</v>
+        <v>0.7812</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.5702</v>
+        <v>0.6276</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.5793</v>
+        <v>0.7799</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.2766</v>
+        <v>0.3774</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.4691</v>
+        <v>0.6118</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.3193</v>
+        <v>0.5325</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.6625</v>
+        <v>0.5824</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0.8614</v>
+        <v>0.5055</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>0.7013</v>
+        <v>0.7076</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.2956</v>
+        <v>0.1865</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.7019</v>
+        <v>0.7541</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.4954</v>
+        <v>0.557</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.3673</v>
+        <v>0.7031</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.5909</v>
+        <v>0.6793</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.6524</v>
+        <v>0.8524</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.3191</v>
+        <v>0.5094</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.5722</v>
+        <v>0.5137</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.2699</v>
+        <v>0.5758</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.7</v>
+        <v>0.6484</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0.9326</v>
+        <v>0.4762</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>0.6644</v>
+        <v>0.8129</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.2845</v>
+        <v>0.191</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.7115</v>
+        <v>0.6393</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1376</v>
+        <v>0.3354</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.3061</v>
+        <v>0.5938</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.7231</v>
+        <v>0.8</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.753</v>
+        <v>1</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.4468</v>
+        <v>0.3585</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.4639</v>
+        <v>0.5686</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.4241</v>
+        <v>0.803</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0.45</v>
+        <v>0.7582</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0.7079</v>
+        <v>0.5678</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>0.6342</v>
+        <v>0.652</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.2707</v>
+        <v>0.5303</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.25</v>
+        <v>0.7049</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.2202</v>
+        <v>0.2532</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.3265</v>
+        <v>0.7188</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.5372</v>
+        <v>0.5931</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.5244</v>
+        <v>0.7493</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.2979</v>
+        <v>0.0755</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.4124</v>
+        <v>0.4902</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.3217</v>
+        <v>0.4134</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0.575</v>
+        <v>0.4615</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0.5393</v>
+        <v>0.7656</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>0.8255</v>
+        <v>0.7749</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.3204</v>
+        <v>0.2</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.8846</v>
+        <v>0.4754</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.4404</v>
+        <v>0.3038</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0.5918</v>
+        <v>0.875</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.7645</v>
+        <v>0.6966</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.7622</v>
+        <v>0.7883</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.5106</v>
+        <v>0.2075</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.6237</v>
+        <v>0.6627</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.388</v>
+        <v>0.4729</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0.8625</v>
+        <v>0.6044</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0.7753</v>
+        <v>0.8938</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>0.8758</v>
+        <v>0.4444</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.2597</v>
+        <v>0.6876</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.3173</v>
+        <v>0.7787</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.1284</v>
+        <v>0.4684</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>0.3673</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.6405</v>
+        <v>0.4931</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.5671</v>
+        <v>0.5766</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.2766</v>
+        <v>0.2264</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.7371</v>
+        <v>0.6157</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.412</v>
+        <v>0.3485</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0.6</v>
+        <v>0.5385</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0.8464</v>
+        <v>0.8242</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>0.7785</v>
+        <v>0.6725</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.2099</v>
+        <v>0.2517</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.7885</v>
+        <v>0.541</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.7248</v>
+        <v>0.3418</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0.4694</v>
+        <v>0.4844</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.7851</v>
+        <v>0.5621</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.8476</v>
+        <v>0.7075</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.3404</v>
+        <v>0.2642</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.9433</v>
+        <v>0.502</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.5325</v>
+        <v>0.2727</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0.7875</v>
+        <v>0.6264</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0.5169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>0.7282</v>
+        <v>0.4211</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.2541</v>
+        <v>0.1933</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.4615</v>
+        <v>0.6721</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.4128</v>
+        <v>0.4177</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0.5714</v>
+        <v>0.3906</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.7273</v>
+        <v>0.5172</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.8293</v>
+        <v>0.5655</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.1915</v>
+        <v>0.2453</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.7216</v>
+        <v>0.4118</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.6771</v>
+        <v>0.2868</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.6625</v>
+        <v>0.6044</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.5805</v>
+        <v>0.8645</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>0.7617</v>
+        <v>0.6111</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.3011</v>
+        <v>0.2404</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.4615</v>
+        <v>0.7459</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.2385</v>
+        <v>0.557</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0.5306</v>
+        <v>0.4062</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0.5455</v>
+        <v>0.5345</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.6768</v>
+        <v>0.6323</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.617</v>
+        <v>0.283</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.732</v>
+        <v>0.4902</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.3084</v>
+        <v>0.2424</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.8375</v>
+        <v>0.6374</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.5768</v>
+        <v>0.9341</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>0.7047</v>
+        <v>0.5789</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.2928</v>
+        <v>0.2315</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.7404</v>
+        <v>0.7541</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.4037</v>
+        <v>0.3101</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.6531</v>
+        <v>0.3594</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.5165</v>
+        <v>0.6448</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.628</v>
+        <v>0.7242</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.3404</v>
+        <v>0.3962</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.5103</v>
+        <v>0.4078</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.3518</v>
+        <v>0.381</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.675</v>
+        <v>0.4176</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0.5768</v>
+        <v>0.7143</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>0.6946</v>
+        <v>0.5526</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.2956</v>
+        <v>0.2202</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.5096</v>
+        <v>0.3607</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.5413</v>
+        <v>0.3671</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.449</v>
+        <v>0.375</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.6612</v>
+        <v>0.4897</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.7652</v>
+        <v>0.5153</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.2766</v>
+        <v>0.2642</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.6753</v>
+        <v>0.3686</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.4602</v>
+        <v>0.289</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.6</v>
+        <v>0.5275</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0.8015</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>0.6275</v>
+        <v>0.7193</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.2486</v>
+        <v>0.2607</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.9231</v>
+        <v>0.9016</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.0826</v>
+        <v>0.519</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.6531</v>
+        <v>0.5781</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.6198</v>
+        <v>0.6793</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.6738</v>
+        <v>0.7326</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.4468</v>
+        <v>0.4528</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.4175</v>
+        <v>0.5294</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.4</v>
+        <v>0.3485</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.6625</v>
+        <v>0.7802</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0.5431</v>
+        <v>0.7802</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>0.5503</v>
+        <v>0.7632</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.2514</v>
+        <v>0.2112</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.6442</v>
+        <v>0.418</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.3119</v>
+        <v>0.3038</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.4082</v>
+        <v>0.4062</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.5579</v>
+        <v>0.5759</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.5976</v>
+        <v>0.5543</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.3404</v>
+        <v>0.2453</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.4588</v>
+        <v>0.6157</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.3578</v>
+        <v>0.3701</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0.7</v>
+        <v>0.5495</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.4419</v>
+        <v>0.8498</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>0.557</v>
+        <v>0.6784</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.2099</v>
+        <v>0.1708</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.2115</v>
+        <v>0.8197</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.0826</v>
+        <v>0.7152</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.4082</v>
+        <v>0.4844</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.5372</v>
+        <v>0.6966</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.6616</v>
+        <v>0.8106</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.3191</v>
+        <v>0.3019</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.4227</v>
+        <v>0.7725</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.2916</v>
+        <v>0.4784</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0.775</v>
+        <v>0.7143</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0.5094</v>
+        <v>0.5275</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>0.7215</v>
+        <v>0.6345</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.268</v>
+        <v>0.2067</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.4135</v>
+        <v>0.541</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.1468</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.7959</v>
+        <v>0.5625</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.8471</v>
+        <v>0.6483</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.8598</v>
+        <v>0.7939</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.4468</v>
+        <v>0.1698</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0.9227</v>
+        <v>0.6039</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.5843</v>
+        <v>0.6082</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0.4875</v>
+        <v>0.6044</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0.7678</v>
+        <v>0.5897</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>0.6711</v>
+        <v>0.6637</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.8564</v>
+        <v>0.2449</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.2308</v>
+        <v>0.541</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.3853</v>
+        <v>0.3797</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.2449</v>
+        <v>0.5312</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.5579</v>
+        <v>0.4966</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.6738</v>
+        <v>0.6546</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.2979</v>
+        <v>0.5472</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0.4794</v>
+        <v>0.6118</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.3614</v>
+        <v>0.2771</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.4375</v>
+        <v>0.7582</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.6255</v>
+        <v>0.5861</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>0.8289</v>
+        <v>0.6871</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.3177</v>
+        <v>0.1775</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.6827</v>
+        <v>0.8197</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.0367</v>
+        <v>0.5253</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.4694</v>
+        <v>0.9688</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.8884</v>
+        <v>0.6793</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.9421</v>
+        <v>0.6685</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.0851</v>
+        <v>0.6981</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.5928</v>
+        <v>0.3686</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4459</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0.4</v>
+        <v>0.7802</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0.8352</v>
+        <v>0.6337</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>0.6141</v>
+        <v>0.614</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.895</v>
+        <v>0.2382</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.3942</v>
+        <v>0.7787</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.2661</v>
+        <v>0.4937</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0.5102</v>
+        <v>0.625</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.6364</v>
+        <v>0.4724</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.6585</v>
+        <v>0.61</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.4043</v>
+        <v>0.3019</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.5722</v>
+        <v>0.4431</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.3711</v>
+        <v>0.316</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0.325</v>
+        <v>0.6154</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0.6255</v>
+        <v>0.5861</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>0.5503</v>
+        <v>0.6053</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.2845</v>
+        <v>0.2404</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.2115</v>
+        <v>0.582</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.2202</v>
+        <v>0.5886</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>0.5918</v>
+        <v>0.4688</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.7851</v>
+        <v>0.5931</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.7713</v>
+        <v>0.7354</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.3191</v>
+        <v>0.2453</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.7629</v>
+        <v>0.5686</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.453</v>
+        <v>0.4134</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.4</v>
+        <v>0.5495</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0.7566</v>
+        <v>0.8059</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>0.9396</v>
+        <v>0.5468</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.9116</v>
+        <v>0.2022</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.5385</v>
+        <v>0.9344</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.3945</v>
+        <v>0.2722</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>0.6735</v>
+        <v>0.625</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0.7231</v>
+        <v>0.5586</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.6646</v>
+        <v>0.6518</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.3617</v>
+        <v>0.3962</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.3608</v>
+        <v>0.3725</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.4771</v>
+        <v>0.3593</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.3875</v>
+        <v>0.6044</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.7491</v>
+        <v>0.5531</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>0.9966</v>
+        <v>0.4795</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.7873</v>
+        <v>0.2045</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.3846</v>
+        <v>0.6967</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.1284</v>
+        <v>0.4304</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>0.4898</v>
+        <v>0.4375</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0.8884</v>
+        <v>0.5069</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.8232</v>
+        <v>0.5822</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.2979</v>
+        <v>0.3019</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.8454</v>
+        <v>0.4039</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.4361</v>
+        <v>0.3214</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.6</v>
+        <v>0.6374</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.7903</v>
+        <v>0.4542</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>0.8356</v>
+        <v>0.4854</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.2597</v>
+        <v>0.1708</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.2308</v>
+        <v>0.3279</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.1284</v>
+        <v>0.2722</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0.4694</v>
+        <v>0.4375</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.8264</v>
+        <v>0.4897</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.8902</v>
+        <v>0.6407</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.1702</v>
+        <v>0.283</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0.8196</v>
+        <v>0.3765</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.5807</v>
+        <v>0.2619</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.4375</v>
+        <v>0.7033</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.7491</v>
+        <v>0.5201</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>0.9027</v>
+        <v>0.8216</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.3536</v>
+        <v>0.7303</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.5</v>
+        <v>0.6639</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.3853</v>
+        <v>0.1266</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>0.5102</v>
+        <v>0.9062</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.6818</v>
+        <v>0.6966</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.747</v>
+        <v>0.7521</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.4043</v>
+        <v>0.1321</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0.9433</v>
+        <v>0.6549</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.5928</v>
+        <v>0.4134</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0.6375</v>
+        <v>0.3846</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.5318</v>
+        <v>0.8278</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>0.849</v>
+        <v>0.6287</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.2735</v>
+        <v>0.218</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.2569</v>
+        <v>0.3165</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0.6122</v>
+        <v>0.7344</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.7355</v>
+        <v>0.7483</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.936</v>
+        <v>0.8217</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.4043</v>
+        <v>0.3962</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0.7887</v>
+        <v>0.7569</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.9181</v>
+        <v>0.5249</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0.7</v>
+        <v>0.4505</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.6629</v>
+        <v>0.7729</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>0.8121</v>
+        <v>0.5848</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.2514</v>
+        <v>0.6966</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.6923</v>
+        <v>0.3443</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.2385</v>
+        <v>0.481</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>0.3265</v>
+        <v>0.3125</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.5579</v>
+        <v>0.5069</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.7683</v>
+        <v>0.6518</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.1915</v>
+        <v>0.2642</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>0.8969</v>
+        <v>0.4196</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.5205</v>
+        <v>0.3247</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0.85</v>
+        <v>0.4066</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0.764</v>
+        <v>0.6337</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>0.7919</v>
+        <v>0.7222</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.3204</v>
+        <v>0.2584</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.7692</v>
+        <v>0.7295</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.2294</v>
+        <v>0.2405</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>0.7551</v>
+        <v>0.4844</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.7851</v>
+        <v>0.7828</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.7073</v>
+        <v>0.8969</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.5532</v>
+        <v>0.0755</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.5825</v>
+        <v>0.5059</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.6048</v>
+        <v>0.4491</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>0.7125</v>
+        <v>0.3736</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0.5993</v>
+        <v>0.8388</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>0.7819</v>
+        <v>0.5351</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.2569</v>
+        <v>0.7281</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.3558</v>
+        <v>0.4836</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.1651</v>
+        <v>0.3987</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0.8163</v>
+        <v>0.5156</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.6198</v>
+        <v>0.5724</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.7409</v>
+        <v>0.6379</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.1702</v>
+        <v>0.3585</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.5515</v>
+        <v>0.4902</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.5506</v>
+        <v>0.3333</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0.45</v>
+        <v>0.3077</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0.7004</v>
+        <v>0.6337</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>0.7215</v>
+        <v>0.4795</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.2735</v>
+        <v>0.2315</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.5577</v>
+        <v>0.3279</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.5413</v>
+        <v>0.3671</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0.7755</v>
+        <v>0.5781</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.7686</v>
+        <v>0.6966</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.7043</v>
+        <v>0.7409</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.1489</v>
+        <v>0.283</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.9794</v>
+        <v>0.6353</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.5988</v>
+        <v>0.4069</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0.525</v>
+        <v>0.3736</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0.6367</v>
+        <v>0.7619</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>0.943</v>
+        <v>0.8187</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.2652</v>
+        <v>0.7416</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.4038</v>
+        <v>0.6066</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.156</v>
+        <v>0.4873</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>0.8163</v>
+        <v>0.6406</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0.8678</v>
+        <v>0.6448</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.7713</v>
+        <v>0.6435</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.2766</v>
+        <v>0.3208</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.7629</v>
+        <v>0.3294</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.6145</v>
+        <v>0.4286</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0.475</v>
+        <v>0.3626</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0.7416</v>
+        <v>0.7546</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>0.6309</v>
+        <v>0.8684</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.3398</v>
+        <v>0.6404</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.7692</v>
+        <v>0.4754</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.2018</v>
+        <v>0.3038</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>0.4898</v>
+        <v>0.5</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.7851</v>
+        <v>0.7828</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.8415</v>
+        <v>0.7883</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.383</v>
+        <v>0.2642</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.5722</v>
+        <v>0.698</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.5687</v>
+        <v>0.3918</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0.6375</v>
+        <v>0.5495</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>0.5655</v>
+        <v>0.7949</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>0.7752</v>
+        <v>0.7281</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.1906</v>
+        <v>0.2112</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.5962</v>
+        <v>0.3443</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.1927</v>
+        <v>0.3038</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>0.6122</v>
+        <v>0.4844</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.9504</v>
+        <v>0.731</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.9756</v>
+        <v>0.8496</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.1277</v>
+        <v>0.1509</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.768</v>
+        <v>0.6784</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.6651</v>
+        <v>0.5216</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0.4125</v>
+        <v>0.4066</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>0.5768</v>
+        <v>0.7546</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>0.4128</v>
+        <v>0.7865</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.1713</v>
+        <v>0.2876</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.1346</v>
+        <v>0.5738</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.2018</v>
+        <v>0.481</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>0.449</v>
+        <v>0.5156</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.3802</v>
+        <v>0.6103</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.2866</v>
+        <v>0.7187</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.8511</v>
+        <v>0.3585</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>0.0361</v>
+        <v>0.7725</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.5386</v>
+        <v>0.5325</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0.525</v>
+        <v>0.5824</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>0.0974</v>
+        <v>0.5421</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>0.7584</v>
+        <v>0.7398</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.1409</v>
+        <v>0.2225</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.0385</v>
+        <v>0.4672</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.3119</v>
+        <v>0.3924</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>0.3265</v>
+        <v>0.5938</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.4132</v>
+        <v>0.6552</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.4024</v>
+        <v>0.8914</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.4043</v>
+        <v>0.3585</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>0.0928</v>
+        <v>0.6549</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.3036</v>
+        <v>0.8247</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0.8375</v>
+        <v>0.6374</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>0.4232</v>
+        <v>0.6703</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>0.3221</v>
+        <v>0.4795</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.1077</v>
+        <v>0.2225</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.2692</v>
+        <v>0.2787</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.4037</v>
+        <v>0.0759</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>0.1837</v>
+        <v>0.3438</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0.9917</v>
+        <v>0.6</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.8018</v>
+        <v>0.8162</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.1277</v>
+        <v>0.0755</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>0.6804</v>
+        <v>0.9804</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0.3819</v>
+        <v>0.6407</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>0.825</v>
+        <v>0.6374</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>0.5768</v>
+        <v>0.6007</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>0.3221</v>
+        <v>0.7076</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.1298</v>
+        <v>0.2045</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0.6538</v>
+        <v>0.7377</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.3211</v>
+        <v>0.3797</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>0.4082</v>
+        <v>0.375</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0.5455</v>
+        <v>0.5069</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.6646</v>
+        <v>0.7382</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.5106</v>
+        <v>0.1698</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>0.7887</v>
+        <v>0.7373</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.4</v>
+        <v>0.4675</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>0.7875</v>
+        <v>0.7692</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>0.3633</v>
+        <v>0.7692</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>0.3221</v>
+        <v>0.7047</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0.1188</v>
+        <v>0.227</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.0385</v>
+        <v>0.5902</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.4587</v>
+        <v>0.1772</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>0</v>
+        <v>0.6406</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0.4174</v>
+        <v>1</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.4665</v>
+        <v>0.9471</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.2979</v>
+        <v>0.3585</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>0.2526</v>
+        <v>0.5725</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.4096</v>
+        <v>0.6245</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>0.7</v>
+        <v>0.5165</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>0.8052</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>0.2953</v>
+        <v>0.6901</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.2403</v>
+        <v>0.2607</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0.3173</v>
+        <v>0.8033</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.5321</v>
+        <v>0.3734</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>0.5102</v>
+        <v>0.7031</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>0</v>
+        <v>0.6966</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>0.1677</v>
+        <v>0.6825</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.5106</v>
+        <v>0.4906</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>0.4691</v>
+        <v>0.498</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.2133</v>
+        <v>0.5433</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>0.4325</v>
+        <v>0.6484</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>0.1835</v>
+        <v>0.6081</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>0.8221</v>
+        <v>0.6813</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0.2127</v>
+        <v>0.209</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.7596</v>
+        <v>0.4508</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.9541</v>
+        <v>0.3291</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>0.1633</v>
+        <v>0.75</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0.7645</v>
+        <v>0.5586</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0.7287</v>
+        <v>0.7131</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.1702</v>
+        <v>0.1509</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>0.6804</v>
+        <v>0.4745</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0.253</v>
+        <v>0.4946</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>1</v>
+        <v>0.4176</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>0.6854</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>0.698</v>
+        <v>0.6287</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0.2541</v>
+        <v>0.2225</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0.3462</v>
+        <v>0.623</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.8624</v>
+        <v>0.5886</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>0.1837</v>
+        <v>0.7188</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0.3223</v>
+        <v>0.6828</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>0.4177</v>
+        <v>0.6797</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.2979</v>
+        <v>0.1321</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>0.2474</v>
+        <v>0.8</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.2964</v>
+        <v>0.5379</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>0.525</v>
+        <v>0.4835</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>0.5431</v>
+        <v>0.6447</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>0.1846</v>
+        <v>0.8216</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0.0967</v>
+        <v>0.2157</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.4038</v>
+        <v>0.4918</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.5872</v>
+        <v>0.3228</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>0.4694</v>
+        <v>0.75</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0.9421</v>
+        <v>0.7655</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>0.5091</v>
+        <v>0.7409</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0</v>
+        <v>0.2453</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>0.567</v>
+        <v>0.6353</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.2325</v>
+        <v>0.5519</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>0.5375</v>
+        <v>0.4396</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>0.6742</v>
+        <v>0.7473</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>0.0839</v>
+        <v>0.5497</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.3149</v>
+        <v>0.2764</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0.0385</v>
+        <v>0.8033</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0.1284</v>
+        <v>0.3544</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>0.3878</v>
+        <v>0.5</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0.2107</v>
+        <v>0.6966</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>0.3354</v>
+        <v>0.805</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.4468</v>
+        <v>0.3396</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>0.3093</v>
+        <v>0.4902</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.3036</v>
+        <v>0.5108</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>0.8375</v>
+        <v>0.5824</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>0.3034</v>
+        <v>0.5751</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>0.1443</v>
+        <v>0.6754</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.5939</v>
+        <v>0.1551</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.3365</v>
+        <v>0.6557</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.3119</v>
+        <v>0.3481</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>0.6939</v>
+        <v>0.5938</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0.2562</v>
+        <v>0.8345</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>0.2591</v>
+        <v>0.9276</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.6383</v>
+        <v>0.1132</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>0.2062</v>
+        <v>0.6392</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.1651</v>
+        <v>0.5974</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3846</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>0.4457</v>
+        <v>0.5861</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>0.4329</v>
+        <v>0.269</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.8646</v>
+        <v>0.0809</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4754</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.7706</v>
+        <v>0.3038</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>0.4694</v>
+        <v>0.4844</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0.7149</v>
+        <v>0.369</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0.6341</v>
+        <v>0.2089</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.6383</v>
+        <v>0.9434</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>0.7216</v>
+        <v>0</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.1554</v>
+        <v>0.2154</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>0.7875</v>
+        <v>0.7802</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>0.6742</v>
+        <v>0.1465</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>0.4396</v>
+        <v>0.3596</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.2956</v>
+        <v>0.1393</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.3077</v>
+        <v>0.2623</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.3853</v>
+        <v>0.3544</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>0.1633</v>
+        <v>0.4688</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0.4545</v>
+        <v>0.3586</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>0.628</v>
+        <v>0.2981</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.2766</v>
+        <v>0.7547</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>0.6289</v>
+        <v>0.0824</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.3157</v>
+        <v>0.4838</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>0.75</v>
+        <v>0.4835</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>0.6779</v>
+        <v>0.1172</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>0.2248</v>
+        <v>0.6608</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.1077</v>
+        <v>0.1146</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0.6058</v>
+        <v>0.1803</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.8624</v>
+        <v>0.4304</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>0.3719</v>
+        <v>0.3862</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>0.3384</v>
+        <v>0.4039</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.5745</v>
+        <v>0.3585</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>0.4381</v>
+        <v>0.1255</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.1108</v>
+        <v>0.2727</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>0.9375</v>
+        <v>0.7582</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>0.5206</v>
+        <v>0.4359</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>0.1443</v>
+        <v>0.2807</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.0414</v>
+        <v>0.0876</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0.6731</v>
+        <v>0.377</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.3119</v>
+        <v>0.4937</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>0.3265</v>
+        <v>0.2656</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0.4545</v>
+        <v>0.869</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>0.5305</v>
+        <v>0.7688</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.1915</v>
+        <v>0.1132</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>0.9278</v>
+        <v>0.5725</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.2133</v>
+        <v>0.3431</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>0.2875</v>
+        <v>0.7473</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>0.6554</v>
+        <v>0.5861</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>0.4228</v>
+        <v>0.2222</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0.0663</v>
+        <v>0.1596</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0.3462</v>
+        <v>0.6803</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0.3119</v>
+        <v>0.4937</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>0.4286</v>
+        <v>0.5312</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0.4545</v>
+        <v>0.3138</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0.4482</v>
+        <v>0.3928</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.3617</v>
+        <v>0.6038</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>0.4691</v>
+        <v>0.2431</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.1614</v>
+        <v>0.1807</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>0.8375</v>
+        <v>1</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>0.6854</v>
+        <v>0.3516</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>0.2517</v>
+        <v>0.2807</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.2403</v>
+        <v>0.1056</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.4135</v>
+        <v>0.7049</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0.7523</v>
+        <v>0.4367</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>0.2449</v>
+        <v>0.4375</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0.281</v>
+        <v>0.4966</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.372</v>
+        <v>0.6435</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.6383</v>
+        <v>0.4528</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>0.5206</v>
+        <v>0.6549</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0.141</v>
+        <v>0.3593</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>0.9625</v>
+        <v>0.7143</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>0.3483</v>
+        <v>0.3773</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>0.0772</v>
+        <v>0.4971</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.3646</v>
+        <v>0.0607</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0.5577</v>
+        <v>0</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0.6422</v>
+        <v>0.2405</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>0.1224</v>
+        <v>0.125</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0.3512</v>
+        <v>0.6897</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.372</v>
+        <v>0.7911</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.7447</v>
+        <v>0.2453</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>0.4124</v>
+        <v>0.7333</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0.1831</v>
+        <v>0.4351</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>0.55</v>
+        <v>0.6374</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>0.5318</v>
+        <v>0.6996</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>0.2248</v>
+        <v>0.2807</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.3011</v>
+        <v>0.0966</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0.4231</v>
+        <v>0.1803</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.3578</v>
+        <v>0.5316</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>0.0612</v>
+        <v>0.125</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0.2066</v>
+        <v>0.3897</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.314</v>
+        <v>0.4624</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.8298</v>
+        <v>0.2642</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>0.5619</v>
+        <v>0.2471</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0.1349</v>
+        <v>0.368</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>0.65</v>
+        <v>0.6374</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>0.3521</v>
+        <v>0.8095</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>0.198</v>
+        <v>0.5643</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.2127</v>
+        <v>0.0449</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0.5192</v>
+        <v>0.541</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0.6789</v>
+        <v>0.3671</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>0.1633</v>
+        <v>0.625</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0.1446</v>
+        <v>0.5345</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.2378</v>
+        <v>0.2674</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.7872</v>
+        <v>0.7925</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>0.5567</v>
+        <v>0.0039</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0.2795</v>
+        <v>0.2045</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>0.6125</v>
+        <v>0.5275</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>0.4944</v>
+        <v>0.2418</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>0.4295</v>
+        <v>0.2573</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.2182</v>
+        <v>0.1955</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.3654</v>
+        <v>0.418</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0.5596</v>
+        <v>0.5823</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>0.0408</v>
+        <v>0.5156</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0.1157</v>
+        <v>0.0414</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.3018</v>
+        <v>0.1894</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.9574</v>
+        <v>0.4528</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>0.5515</v>
+        <v>0.4118</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>0.2133</v>
+        <v>0.1916</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4022</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>0.2734</v>
+        <v>0.2015</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>0.2953</v>
+        <v>0.7164</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.5773</v>
+        <v>0.173</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>0.3269</v>
+        <v>0.7951</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.3119</v>
+        <v>0.8734</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>0.2041</v>
+        <v>0.25</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.5579</v>
+        <v>0.6793</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.5427</v>
+        <v>0.7019</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.2553</v>
+        <v>0.1509</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>0.7423</v>
+        <v>0.5725</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>0.1048</v>
+        <v>0.2273</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>0.7375</v>
+        <v>0.9011</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>0.7378</v>
+        <v>0.6923</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>0.0705</v>
+        <v>0.6082</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.3453</v>
+        <v>0.2067</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>0.3846</v>
+        <v>0.4426</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0.3119</v>
+        <v>0.8101</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>0.4082</v>
+        <v>0.2656</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0.7934</v>
+        <v>0.3103</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.5457</v>
+        <v>0.4178</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.0851</v>
+        <v>0.2642</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>0.4124</v>
+        <v>0.2431</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>0.2373</v>
+        <v>0.2662</v>
       </c>
       <c r="K70" s="0" t="n">
-        <v>0.75</v>
+        <v>0.4835</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>0.6105</v>
+        <v>0.5531</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>0.2953</v>
+        <v>0.1608</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.1851</v>
+        <v>0.0787</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>0.0962</v>
+        <v>0.4918</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0.1284</v>
+        <v>0.6203</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>0.1429</v>
+        <v>0.4844</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0.5992</v>
+        <v>0.8276</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0.6189</v>
+        <v>0.5014</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.3404</v>
+        <v>0</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>0.6289</v>
+        <v>0.4863</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>0.1952</v>
+        <v>0.2089</v>
       </c>
       <c r="K71" s="0" t="n">
-        <v>0.8375</v>
+        <v>0.4945</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>0.5281</v>
+        <v>0.6813</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>0.3221</v>
+        <v>0.0731</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.0912</v>
+        <v>0.2562</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.2115</v>
+        <v>0.1803</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0.3578</v>
+        <v>0.3038</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>0.2041</v>
+        <v>0.4219</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>1</v>
+        <v>0.2172</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1</v>
+        <v>0.3426</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.234</v>
+        <v>0.3962</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>0.7216</v>
+        <v>0.2902</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>0.388</v>
+        <v>0.2727</v>
       </c>
       <c r="K72" s="0" t="n">
-        <v>0.6</v>
+        <v>0.7582</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>0.5393</v>
+        <v>0.3187</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>0.3993</v>
+        <v>0.4737</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.1657</v>
+        <v>0.036</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>0.0192</v>
+        <v>0.0082</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0.3578</v>
+        <v>0.3038</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>0.2041</v>
+        <v>0.25</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>0.1446</v>
+        <v>0.3345</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0.2713</v>
+        <v>0.4708</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.3404</v>
+        <v>0.2075</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>0.4124</v>
+        <v>0.4118</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>0.141</v>
+        <v>0.3593</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>0.6</v>
+        <v>0.7143</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>0.5393</v>
+        <v>0.4432</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>0.3121</v>
+        <v>0.1257</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.4724</v>
+        <v>0.4831</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>0.5577</v>
+        <v>0.4344</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0.5872</v>
+        <v>0.4304</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>0.4082</v>
+        <v>0.6562</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0.6033</v>
+        <v>0.2552</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0.5</v>
+        <v>0.273</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.4468</v>
+        <v>0.566</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>0.3918</v>
+        <v>0.2118</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>0.1831</v>
+        <v>0.1483</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>0.3</v>
+        <v>0.4615</v>
       </c>
       <c r="L74" s="0" t="n">
-        <v>0.7678</v>
+        <v>0.4579</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>0.1376</v>
+        <v>0.3772</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.2707</v>
+        <v>0.7034</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>0</v>
+        <v>0.5738</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0.4495</v>
+        <v>0.7468</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>0.1633</v>
+        <v>0.4844</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>0.5785</v>
+        <v>0.6379</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.3567</v>
+        <v>0.6156</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.5106</v>
+        <v>0.566</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>0.4485</v>
+        <v>0.6039</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>0.094</v>
+        <v>0.1396</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>0.475</v>
+        <v>0.7143</v>
       </c>
       <c r="L75" s="0" t="n">
-        <v>0.4157</v>
+        <v>0.6813</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>0.3691</v>
+        <v>0.1725</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.2735</v>
+        <v>0.0404</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.0962</v>
+        <v>0.2459</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0.5413</v>
+        <v>0.4937</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>0.1429</v>
+        <v>0.25</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>0.4545</v>
+        <v>0.4966</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0.4421</v>
+        <v>0.5348</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.4043</v>
+        <v>0.3208</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>0.4794</v>
+        <v>0.4</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>0.2</v>
+        <v>0.132</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>0.6</v>
+        <v>0.9231</v>
       </c>
       <c r="L76" s="0" t="n">
-        <v>0.839</v>
+        <v>0.6777</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>0.2819</v>
+        <v>0.383</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.2735</v>
+        <v>0.2404</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>0.2308</v>
+        <v>0.4098</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0.4037</v>
+        <v>0.481</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>0.0408</v>
+        <v>0.25</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>0.2273</v>
+        <v>0.4207</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0.4756</v>
+        <v>0.61</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.5106</v>
+        <v>0.2453</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>0.5567</v>
+        <v>0.5333</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>0.2554</v>
+        <v>0.2835</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>0.55</v>
+        <v>0.6813</v>
       </c>
       <c r="L77" s="0" t="n">
-        <v>0.6891</v>
+        <v>0.685</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>0.4396</v>
+        <v>0.1959</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.279</v>
+        <v>0.0876</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>0.3846</v>
+        <v>0.6639</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0.7248</v>
+        <v>0.8101</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>0.1224</v>
+        <v>0.125</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>0.1157</v>
+        <v>0.3517</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0.3933</v>
+        <v>0.3454</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.7447</v>
+        <v>0.5094</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>0.5567</v>
+        <v>0.3882</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>0.2434</v>
+        <v>0.0996</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>0.4</v>
+        <v>0.8462</v>
       </c>
       <c r="L78" s="0" t="n">
-        <v>0.4082</v>
+        <v>0.5311</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>0.2718</v>
+        <v>0.4795</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.1519</v>
+        <v>0.7011</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>0.0577</v>
+        <v>0.5082</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0.4037</v>
+        <v>0.7152</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>0.2857</v>
+        <v>0.2344</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>0.5207</v>
+        <v>0.231</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0.4787</v>
+        <v>0.3482</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.5532</v>
+        <v>0.9057</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>0.7887</v>
+        <v>0.4745</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>0.1711</v>
+        <v>0.381</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>0.375</v>
+        <v>0.3297</v>
       </c>
       <c r="L79" s="0" t="n">
-        <v>0.633</v>
+        <v>0.2711</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
-        <v>0.0671</v>
+        <v>0.1257</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.1685</v>
+        <v>0.0337</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.7885</v>
+        <v>0.7213</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0.4954</v>
+        <v>0.4304</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>0.3265</v>
+        <v>0.375</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>0.6777</v>
+        <v>0.4207</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.747</v>
+        <v>0.5209</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.3404</v>
+        <v>0.1698</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>1</v>
+        <v>0.7608</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>0.1651</v>
+        <v>0.1916</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>0.5</v>
+        <v>0.2747</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>0.7228</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>0.3725</v>
+        <v>0.3684</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.4669</v>
+        <v>0.0539</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>0.2788</v>
+        <v>0.4426</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0.5872</v>
+        <v>0.4304</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>0.2041</v>
+        <v>0.4531</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>0.5992</v>
+        <v>0.4207</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.5488</v>
+        <v>0.4457</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.2766</v>
+        <v>0.3208</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>0.3454</v>
+        <v>0.4118</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>0.0867</v>
+        <v>0.145</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>0.425</v>
+        <v>0.7582</v>
       </c>
       <c r="L81" s="0" t="n">
-        <v>0.5431</v>
+        <v>0.6923</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>0.1174</v>
+        <v>0.2193</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.5359</v>
+        <v>0.1955</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0.4954</v>
+        <v>0.7342</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>0.5102</v>
+        <v>0.3125</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>0.2686</v>
+        <v>0.2759</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.4756</v>
+        <v>0.376</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1</v>
+        <v>0.566</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>0.2577</v>
+        <v>0.451</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>0.3036</v>
+        <v>0.1266</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>0.8375</v>
+        <v>0.8681</v>
       </c>
       <c r="L82" s="0" t="n">
-        <v>0.4382</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>0</v>
+        <v>0.0702</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0</v>
+        <v>0.209</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>0.5962</v>
+        <v>0.7541</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0.5872</v>
+        <v>0.9367</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>0.2041</v>
+        <v>0.2812</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>0.5702</v>
+        <v>0.3241</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.4695</v>
+        <v>0.3538</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.617</v>
+        <v>0.5094</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>0.4588</v>
+        <v>0.3647</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>0.2169</v>
+        <v>0.1429</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>0.675</v>
+        <v>0.9011</v>
       </c>
       <c r="L83" s="0" t="n">
-        <v>0.367</v>
+        <v>0.7106</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>0.2248</v>
+        <v>0.0673</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.1796</v>
+        <v>0.2966</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.5962</v>
+        <v>0.623</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>0.7248</v>
+        <v>0.6582</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>0.1224</v>
+        <v>0.2188</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>0.6033</v>
+        <v>0.3345</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.5549</v>
+        <v>0.376</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.6383</v>
+        <v>0.6604</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>0.2526</v>
+        <v>0.3686</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>0.1952</v>
+        <v>0.1645</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>0.4625</v>
+        <v>0.5055</v>
       </c>
       <c r="L84" s="0" t="n">
-        <v>0.6966</v>
+        <v>0.5421</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>0.1376</v>
+        <v>0.1959</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.2017</v>
+        <v>0.1326</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>0.1058</v>
+        <v>0.4918</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0.5688</v>
+        <v>0.7848</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>0.1633</v>
+        <v>0</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>0.3636</v>
+        <v>0.4207</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.3445</v>
+        <v>0.3482</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.3617</v>
+        <v>0.5472</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>0.5052</v>
+        <v>0.3804</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>0.0807</v>
+        <v>0.0498</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>0.4875</v>
+        <v>0.5824</v>
       </c>
       <c r="L85" s="0" t="n">
-        <v>0.7491</v>
+        <v>0.7106</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>0.3389</v>
+        <v>0.1959</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.2403</v>
+        <v>0.2449</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>0.2981</v>
+        <v>0.5082</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0.7248</v>
+        <v>0.462</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>0.6122</v>
+        <v>0.1719</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>0.3719</v>
+        <v>0.2138</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.4939</v>
+        <v>0.3231</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.4468</v>
+        <v>0.7358</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>0.5464</v>
+        <v>0.4824</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>0.094</v>
+        <v>0.1212</v>
       </c>
       <c r="K86" s="0" t="n">
-        <v>0.625</v>
+        <v>0.5934</v>
       </c>
       <c r="L86" s="0" t="n">
-        <v>0.6105</v>
+        <v>0.3663</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>0.4564</v>
+        <v>0.1725</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.7431</v>
+        <v>0.173</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>0.0962</v>
+        <v>0.5902</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>0.1284</v>
+        <v>0.6835</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>0.0408</v>
+        <v>0.25</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>0.219</v>
+        <v>0.1621</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0.2378</v>
+        <v>0.2535</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.6383</v>
+        <v>0.6981</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>0.1443</v>
+        <v>0.4784</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>0.2554</v>
+        <v>0.2511</v>
       </c>
       <c r="K87" s="0" t="n">
-        <v>0.175</v>
+        <v>0.5604</v>
       </c>
       <c r="L87" s="0" t="n">
-        <v>0.2959</v>
+        <v>0.5055</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <v>0.198</v>
+        <v>0.3743</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0.7431</v>
+        <v>0.1775</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.1154</v>
+        <v>0.459</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>0.4037</v>
+        <v>0.6013</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>0.1837</v>
+        <v>0.1562</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>0.3719</v>
+        <v>0.1379</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.3567</v>
+        <v>0.312</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.5106</v>
+        <v>0.8491</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>0.6804</v>
+        <v>0.4745</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>0</v>
+        <v>0.1916</v>
       </c>
       <c r="K88" s="0" t="n">
-        <v>0.4625</v>
+        <v>0.4615</v>
       </c>
       <c r="L88" s="0" t="n">
-        <v>0.6442</v>
+        <v>0.2894</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
-        <v>0.0134</v>
+        <v>0.2573</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.4586</v>
+        <v>0.4697</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>0.5192</v>
+        <v>0.4262</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0.4954</v>
+        <v>0.4304</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>0.3673</v>
+        <v>0.2812</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>0.7438</v>
+        <v>0.5069</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.7073</v>
+        <v>0.532</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.4043</v>
+        <v>0.2264</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>0.6598</v>
+        <v>0.6196</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>0.2373</v>
+        <v>0.0942</v>
       </c>
       <c r="K89" s="0" t="n">
-        <v>0.3</v>
+        <v>0.6703</v>
       </c>
       <c r="L89" s="0" t="n">
-        <v>0.7715</v>
+        <v>0.7436</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>0.2215</v>
+        <v>0.0614</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.3923</v>
+        <v>0.2809</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>0.2788</v>
+        <v>0.4754</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0.5872</v>
+        <v>0.4304</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>0.1429</v>
+        <v>0.4375</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>0.6198</v>
+        <v>0.7034</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.6646</v>
+        <v>0.5348</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.5106</v>
+        <v>0.0755</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>0.4124</v>
+        <v>0.3686</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>0.1783</v>
+        <v>0.2132</v>
       </c>
       <c r="K90" s="0" t="n">
-        <v>0.375</v>
+        <v>0.6813</v>
       </c>
       <c r="L90" s="0" t="n">
-        <v>0.7303</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>0.3423</v>
+        <v>0.117</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.2182</v>
+        <v>0.3101</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>0.3942</v>
+        <v>0.8525</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>0.633</v>
+        <v>0.6519</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>0.1633</v>
+        <v>1</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>0.6777</v>
+        <v>0.2138</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.8171</v>
+        <v>0.1811</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.5532</v>
+        <v>0.0189</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>0.6289</v>
+        <v>0.451</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>0.3205</v>
+        <v>0.132</v>
       </c>
       <c r="K91" s="0" t="n">
-        <v>0.1625</v>
+        <v>0.4505</v>
       </c>
       <c r="L91" s="0" t="n">
-        <v>0.5655</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
-        <v>0.3221</v>
+        <v>0.2573</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.2459</v>
+        <v>0.1506</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.4038</v>
+        <v>0.2295</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0.9083</v>
+        <v>0.3038</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>0.2041</v>
+        <v>0.2344</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>0.4628</v>
+        <v>0.5414</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.6037</v>
+        <v>0.6017</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.5745</v>
+        <v>0.3019</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>0.6959</v>
+        <v>0.5333</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0.1012</v>
+        <v>0.1753</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>0.4125</v>
+        <v>0.7582</v>
       </c>
       <c r="L92" s="0" t="n">
-        <v>0.5431</v>
+        <v>0.5385</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>0.2114</v>
+        <v>0.2807</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.9834</v>
+        <v>0.0742</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>0.4808</v>
+        <v>0.3279</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0.6789</v>
+        <v>0.462</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>0.0408</v>
+        <v>0.2812</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>0.4132</v>
+        <v>0.8759</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.3902</v>
+        <v>0.9499</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.617</v>
+        <v>0.2075</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>0.4124</v>
+        <v>0.6039</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>0.159</v>
+        <v>0.3485</v>
       </c>
       <c r="K93" s="0" t="n">
-        <v>0.2875</v>
+        <v>0.5495</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>0.4644</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>0.4933</v>
+        <v>0.2573</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0.6215</v>
+        <v>0.5461</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>0.5</v>
+        <v>0.418</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>0.4954</v>
+        <v>0.4304</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>0.5306</v>
+        <v>0.2812</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>0.0826</v>
+        <v>0.6448</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.2287</v>
+        <v>0.7382</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.234</v>
+        <v>0.6038</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>0.1443</v>
+        <v>0.9412</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>0.4964</v>
+        <v>0.1104</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>0.225</v>
+        <v>0.967</v>
       </c>
       <c r="L94" s="0" t="n">
-        <v>0.0337</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>0.4698</v>
+        <v>0.1959</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0.4337</v>
+        <v>0.3011</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0.8624</v>
+        <v>0.3987</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>0.4082</v>
+        <v>0.4219</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>0.0207</v>
+        <v>0.431</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.189</v>
+        <v>0.5097</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.2979</v>
+        <v>0.2453</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>0.1443</v>
+        <v>0.3882</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>0.5325</v>
+        <v>0.2186</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>0.125</v>
+        <v>0.8022</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>0.0112</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>0.3691</v>
+        <v>0.348</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0.1381</v>
+        <v>0.1348</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.3558</v>
+        <v>0.1639</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>0.2661</v>
+        <v>0.462</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>0.1429</v>
+        <v>0.2812</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>0.3719</v>
+        <v>0.1621</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.0335</v>
+        <v>0.2841</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1</v>
+        <v>0.3019</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>0.3608</v>
+        <v>0.3686</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>0.5024</v>
+        <v>0.1266</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>0.2375</v>
+        <v>0.5495</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>0.0674</v>
+        <v>0.5495</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>0.698</v>
+        <v>0.2719</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.7873</v>
+        <v>0.3843</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>0.2981</v>
+        <v>0.623</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>0.4495</v>
+        <v>0.6203</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>0.2041</v>
+        <v>0.4375</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>0.2149</v>
+        <v>0.5448</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.003</v>
+        <v>0.493</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.9574</v>
+        <v>0.3962</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>0.1701</v>
+        <v>0.3529</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>0.5325</v>
+        <v>0.1645</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>0.3125</v>
+        <v>0.2857</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>0.1835</v>
+        <v>0.7729</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>0.4799</v>
+        <v>0.1199</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0.6133</v>
+        <v>0.2202</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>0.7019</v>
+        <v>0.1475</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0.8624</v>
+        <v>0.5253</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>0.4694</v>
+        <v>0.25</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>0.5041</v>
+        <v>0.5241</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.0396</v>
+        <v>0.3621</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.8511</v>
+        <v>0.4528</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>0.134</v>
+        <v>0.3961</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>0.4386</v>
+        <v>0.0844</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>0.4125</v>
+        <v>0.4396</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>0.3071</v>
+        <v>0.4286</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <v>0.5101</v>
+        <v>0.3216</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.5718</v>
+        <v>0.2225</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>0.7885</v>
+        <v>0.2295</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>0.5872</v>
+        <v>0.5886</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>0.3673</v>
+        <v>0.2344</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>0.1818</v>
+        <v>0.4207</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.0091</v>
+        <v>0.4401</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.8511</v>
+        <v>0.3585</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>0.1031</v>
+        <v>0.4196</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>0.4</v>
+        <v>0.1797</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>0.2625</v>
+        <v>0.5495</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>0.367</v>
+        <v>0.8425</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <v>0.6544</v>
+        <v>0.2953</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0.5028</v>
+        <v>0.4067</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.4519</v>
+        <v>0.4672</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>0.4954</v>
+        <v>0.6835</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>0.2245</v>
+        <v>0.3125</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>0.124</v>
+        <v>0.2414</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.0091</v>
+        <v>0.4178</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.5106</v>
+        <v>1</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>0.0464</v>
+        <v>0.3961</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>0.5205</v>
+        <v>0.1537</v>
       </c>
       <c r="K100" s="0" t="n">
-        <v>0.175</v>
+        <v>0.3516</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>0.427</v>
+        <v>0.7436</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <v>0.7081</v>
+        <v>0.2456</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0.6713</v>
+        <v>0.2225</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>0.8077</v>
+        <v>0.3443</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>0.8165</v>
+        <v>0.4937</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>0.3878</v>
+        <v>0.1562</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>0.186</v>
+        <v>0.231</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>0.0152</v>
+        <v>0.4708</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>0.7872</v>
+        <v>0.4528</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>0</v>
+        <v>0.4784</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>0.3699</v>
+        <v>0.2294</v>
       </c>
       <c r="K101" s="0" t="n">
-        <v>0.4125</v>
+        <v>0.5055</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>0.2734</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
-        <v>0.2819</v>
+        <v>0.383</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0.8674</v>
+        <v>0.227</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>0.3077</v>
+        <v>0.4754</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>0.3578</v>
+        <v>0.7152</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>0.6939</v>
+        <v>0.2188</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>0.1157</v>
+        <v>0.1379</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>0.0945</v>
+        <v>0.3955</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>0.3404</v>
+        <v>0.6604</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>0.3041</v>
+        <v>0.4784</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>0.8349</v>
+        <v>0.2186</v>
       </c>
       <c r="K102" s="0" t="n">
-        <v>0.1125</v>
+        <v>0.3736</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>0.2509</v>
+        <v>0.4212</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
-        <v>0.5872</v>
+        <v>0.2368</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0.7818</v>
+        <v>0.1236</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>0.2596</v>
+        <v>0.1967</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>0.5872</v>
+        <v>0.4937</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>0.4898</v>
+        <v>0.3438</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>0.1653</v>
+        <v>0.4759</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>0.0244</v>
+        <v>0.4735</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>0.6383</v>
+        <v>0.4906</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>0.3866</v>
+        <v>0.6549</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>0.3277</v>
+        <v>0.1537</v>
       </c>
       <c r="K103" s="0" t="n">
-        <v>0.05</v>
+        <v>0.3516</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>0.1311</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
-        <v>0.5604</v>
+        <v>0.0585</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>0.8729</v>
+        <v>0.1371</v>
       </c>
       <c r="C104" s="0" t="n">
+        <v>0.8197</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>0.6069</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>0.7187</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>0.3019</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>0.8157</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>0.1483</v>
+      </c>
+      <c r="K104" s="0" t="n">
         <v>0.4615</v>
       </c>
-      <c r="D104" s="0" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>0.1281</v>
-      </c>
-      <c r="G104" s="0" t="n">
-        <v>0.2805</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>0.4468</v>
-      </c>
-      <c r="I104" s="0" t="n">
-        <v>0.3041</v>
-      </c>
-      <c r="J104" s="0" t="n">
-        <v>0.9783</v>
-      </c>
-      <c r="K104" s="0" t="n">
-        <v>0.0125</v>
-      </c>
       <c r="L104" s="0" t="n">
-        <v>0</v>
+        <v>0.7289</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
-        <v>0.5705</v>
+        <v>0.3246</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0.3204</v>
+        <v>0.3798</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>0.8365</v>
+        <v>0.3852</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>1</v>
+        <v>0.6203</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>0.7755</v>
+        <v>0.2812</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>0.4545</v>
+        <v>0.5414</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>0.247</v>
+        <v>0.5376</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>0.2766</v>
+        <v>0.2453</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>0.5206</v>
+        <v>0.3176</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>0.7012</v>
+        <v>0.0779</v>
       </c>
       <c r="K105" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.3956</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>0</v>
+        <v>0.5531</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
-        <v>0.3926</v>
+        <v>0.1023</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0.1519</v>
+        <v>0.436</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>0.2115</v>
+        <v>1</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>0.4954</v>
+        <v>0.557</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>0.5102</v>
+        <v>0.5156</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>0.157</v>
+        <v>0.2655</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>0.0335</v>
+        <v>0.4708</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>0.8511</v>
+        <v>0.8868</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>0.4381</v>
+        <v>0.251</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>0.7614</v>
+        <v>0.2727</v>
       </c>
       <c r="K106" s="0" t="n">
-        <v>0.025</v>
+        <v>0.7582</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>0.0824</v>
+        <v>0.4505</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
-        <v>0.8154</v>
+        <v>0</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>0.9337</v>
+        <v>0</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>0.4808</v>
+        <v>0.6557</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0.4495</v>
+        <v>0.6203</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>0.2245</v>
+        <v>0.2812</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>0.2893</v>
+        <v>0.5172</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>0.1098</v>
+        <v>0.4652</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>0.7447</v>
+        <v>0.5472</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>0.5206</v>
+        <v>0.4039</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>0.9313</v>
+        <v>0.1948</v>
       </c>
       <c r="K107" s="0" t="n">
-        <v>0.0125</v>
+        <v>0.6154</v>
       </c>
       <c r="L107" s="0" t="n">
-        <v>0.1161</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>0.3188</v>
+        <v>0.1959</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0.8536</v>
+        <v>0.1461</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.4808</v>
+        <v>0.6557</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>0.5872</v>
+        <v>0.7152</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>0.2041</v>
+        <v>0.2188</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>0.4959</v>
+        <v>0.5448</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>0.1372</v>
+        <v>0.5432</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>0.7872</v>
+        <v>0.566</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>0.2526</v>
+        <v>0.2471</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>0.7675</v>
+        <v>0.1753</v>
       </c>
       <c r="K108" s="0" t="n">
-        <v>0</v>
+        <v>0.4286</v>
       </c>
       <c r="L108" s="0" t="n">
-        <v>0.0936</v>
+        <v>0.7033</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
-        <v>0.7651</v>
+        <v>0.1199</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0.6961</v>
+        <v>0.164</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>0.6346</v>
+        <v>0.2377</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>0.4954</v>
+        <v>0.6076</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>0.5918</v>
+        <v>0.25</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>0.3017</v>
+        <v>0.3448</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>0.0274</v>
+        <v>0.351</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>0.7872</v>
+        <v>0.3208</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>0.1289</v>
+        <v>0.4392</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>0.5542</v>
+        <v>0.0725</v>
       </c>
       <c r="K109" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4505</v>
       </c>
       <c r="L109" s="0" t="n">
-        <v>0.1835</v>
+        <v>0.7546</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
-        <v>0.4832</v>
+        <v>0.2953</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>0.6989</v>
+        <v>0.1955</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>0.6731</v>
+        <v>0.4016</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>0.6789</v>
+        <v>0.7152</v>
       </c>
       <c r="E110" s="0" t="n">
+        <v>0.5938</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>0.3962</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>0.4706</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>0.0844</v>
+      </c>
+      <c r="K110" s="0" t="n">
         <v>0.5714</v>
       </c>
-      <c r="F110" s="0" t="n">
-        <v>0.2273</v>
-      </c>
-      <c r="G110" s="0" t="n">
-        <v>0.0396</v>
-      </c>
-      <c r="H110" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" s="0" t="n">
-        <v>0.2113</v>
-      </c>
-      <c r="J110" s="0" t="n">
-        <v>0.5181</v>
-      </c>
-      <c r="K110" s="0" t="n">
-        <v>0.3875</v>
-      </c>
       <c r="L110" s="0" t="n">
-        <v>0.2921</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
-        <v>0.5201</v>
+        <v>0.3977</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0.7486</v>
+        <v>0.6045</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>0.4519</v>
+        <v>0.2295</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0.3578</v>
+        <v>0.3038</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>0.5714</v>
+        <v>0.1562</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>0.1198</v>
+        <v>0.2241</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>0.0701</v>
+        <v>0.2535</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>0.5745</v>
+        <v>0.566</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>0.201</v>
+        <v>0.1647</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>0.4819</v>
+        <v>0.2294</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>0.15</v>
+        <v>0.1758</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>0.1573</v>
+        <v>0.3114</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>0.7953</v>
+        <v>0.1725</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0.558</v>
+        <v>0.6045</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0.4038</v>
+        <v>0.2459</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>0.6789</v>
+        <v>0.4937</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>0.2449</v>
+        <v>0.2656</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>0.1033</v>
+        <v>0.3517</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>0.064</v>
+        <v>0.3621</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>0.5957</v>
+        <v>0.4528</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>0.2474</v>
+        <v>0.5725</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>0.175</v>
+        <v>0.4286</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>0.1311</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
-        <v>0.7785</v>
+        <v>0.0117</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>1</v>
+        <v>0.373</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>0.3654</v>
+        <v>0.5902</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>0.7248</v>
+        <v>0.557</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>0.2041</v>
+        <v>0.4062</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>0.0744</v>
+        <v>0.6621</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>0</v>
+        <v>0.6825</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>0.8298</v>
+        <v>0.3585</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>0.3093</v>
+        <v>0.5569</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>0.6434</v>
+        <v>0.2132</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>0.275</v>
+        <v>0.2857</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>0.1573</v>
+        <v>0.7766</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>0.7282</v>
+        <v>0.2953</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0.5083</v>
+        <v>0.8292</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>0.7788</v>
+        <v>0.8443</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0.9083</v>
+        <v>0.9684</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>0.551</v>
+        <v>0.5</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>0.186</v>
+        <v>0.4207</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>0.1128</v>
+        <v>0.4986</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>0.5532</v>
+        <v>0.566</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>0.5103</v>
+        <v>0.5098</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>0.8892</v>
+        <v>0.0866</v>
       </c>
       <c r="K114" s="0" t="n">
-        <v>0.225</v>
+        <v>0.4176</v>
       </c>
       <c r="L114" s="0" t="n">
-        <v>0.176</v>
+        <v>0.6777</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
-        <v>0.2651</v>
+        <v>0.1345</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0.6326</v>
+        <v>0.8022</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>0.4231</v>
+        <v>0.5656</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0.4037</v>
+        <v>0.6203</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>0.3673</v>
+        <v>0.1875</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>0.062</v>
+        <v>0.6483</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>0.0061</v>
+        <v>0.7493</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>0.5745</v>
+        <v>0.1509</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>0.0928</v>
+        <v>0.9804</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>0.5084</v>
+        <v>0.1645</v>
       </c>
       <c r="K115" s="0" t="n">
-        <v>0.125</v>
+        <v>0.2308</v>
       </c>
       <c r="L115" s="0" t="n">
-        <v>0.1873</v>
+        <v>0.8681</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>0.6678</v>
+        <v>0.193</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0.8757</v>
+        <v>0.3191</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.5769</v>
+        <v>0.3852</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>0.7706</v>
+        <v>0.6203</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>0.4898</v>
+        <v>0.2344</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>0.2893</v>
+        <v>0.5586</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>0.0854</v>
+        <v>0.6435</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>0.6383</v>
+        <v>0.4528</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>0.4433</v>
+        <v>0.3686</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>0.7253</v>
+        <v>0.1602</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>0.175</v>
+        <v>0.3516</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>0.0861</v>
+        <v>0.7363</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>0.5906</v>
+        <v>0.2982</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0.511</v>
+        <v>0.1775</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>0.4712</v>
+        <v>0.4836</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>0.4954</v>
+        <v>0.6519</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>0.8571</v>
+        <v>0.25</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>0.2273</v>
+        <v>0.6069</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>0.064</v>
+        <v>0.7827</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>0.8511</v>
+        <v>0.4906</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>0.4691</v>
+        <v>0.5333</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>0.9663</v>
+        <v>0.2879</v>
       </c>
       <c r="K117" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1648</v>
       </c>
       <c r="L117" s="0" t="n">
-        <v>0.1086</v>
+        <v>0.5751</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>0.9128</v>
+        <v>0.2807</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0.9282</v>
+        <v>0.2</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>0.8269</v>
+        <v>0.4918</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>0.9083</v>
+        <v>0.8418</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>0.3673</v>
+        <v>0.2812</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>0.3926</v>
+        <v>0.4276</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>0.0884</v>
+        <v>0.5877</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>0.9149</v>
+        <v>0.5094</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>0.4124</v>
+        <v>0.5843</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>0.9542</v>
+        <v>0.0909</v>
       </c>
       <c r="K118" s="0" t="n">
-        <v>0.0625</v>
+        <v>0.3846</v>
       </c>
       <c r="L118" s="0" t="n">
-        <v>0.1011</v>
+        <v>0.5531</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>0.1842</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>0.5574</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>0.6835</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0.1562</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>0.3862</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>0.3928</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>0.5472</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>0.3686</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>0.2747</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <v>0.4762</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>0.1371</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>0.5082</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>0.4304</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>0.1828</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>0.2078</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>0.3052</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>0.2418</v>
+      </c>
+      <c r="L120" s="0" t="n">
+        <v>0.0073</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>0.4298</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>0.5056</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>0.5738</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0.5312</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>0.1103</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>0.2451</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>0.2075</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>0.4459</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <v>0.2198</v>
+      </c>
+      <c r="L121" s="0" t="n">
+        <v>0.0549</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>0.4094</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>0.5738</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>0.8101</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>0.0586</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>0.2089</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>0.2642</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>0.4784</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>0.3772</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>0.6315</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>0.6519</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>0.2483</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>0.2396</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>0.1686</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>0.4026</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>0.2637</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <v>0.0073</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>0.3216</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>0.1124</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>0.4508</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>0.3987</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0.2344</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>0.0669</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0.8868</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>0.3294</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>0.4513</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <v>0.2308</v>
+      </c>
+      <c r="L124" s="0" t="n">
+        <v>0.0879</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>0.3865</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>0.2207</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>0.0891</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>0.9434</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>0.2078</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <v>0.6299</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>0.2088</v>
+      </c>
+      <c r="L125" s="0" t="n">
+        <v>0.1136</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>0.2456</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>0.8944</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>0.6885</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>0.6203</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0.2969</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>0.1379</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>0.0362</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>0.7547</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>0.1529</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>0.2781</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <v>0.2308</v>
+      </c>
+      <c r="L126" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>0.6404</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>0.4016</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>0.5253</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0.2812</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>0.2207</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>0.8491</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>0.1843</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <v>0.4784</v>
+      </c>
+      <c r="K127" s="0" t="n">
+        <v>0.2967</v>
+      </c>
+      <c r="L127" s="0" t="n">
+        <v>0.2015</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>0.4181</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>0.7459</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>0.8101</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0.4844</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>0.4621</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>0.0724</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>0.7547</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>0.1569</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <v>0.3939</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>0.3846</v>
+      </c>
+      <c r="L128" s="0" t="n">
+        <v>0.3223</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>0.4444</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>0.4652</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>0.8197</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>0.6203</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0.4062</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>0.1931</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>0.0446</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>0.7547</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>0.1333</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>0.3593</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="L129" s="0" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>0.5702</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>0.5328</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0.2969</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0.1448</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>0.0446</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0.4528</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>0.0902</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>0.4675</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>0.1758</v>
+      </c>
+      <c r="L130" s="0" t="n">
+        <v>0.4396</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>0.5461</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>0.8361</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>0.7785</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0.1966</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>0.0501</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0.6981</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>0.0549</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>0.3323</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>0.3846</v>
+      </c>
+      <c r="L131" s="0" t="n">
+        <v>0.2894</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>0.6462</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>0.9461</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>0.5328</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>0.1281</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0.6415</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>0.2392</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="K132" s="0" t="n">
+        <v>0.4066</v>
+      </c>
+      <c r="L132" s="0" t="n">
+        <v>0.2857</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>0.2456</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>0.7056</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0.6562</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>0.1379</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>0.1226</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0.3019</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>0.2863</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <v>0.1209</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <v>0.2674</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>0.5117</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>0.3689</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>0.6203</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>0.1793</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>0.0585</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>0.566</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <v>0.2944</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <v>0.0659</v>
+      </c>
+      <c r="L134" s="0" t="n">
+        <v>0.1502</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>0.7222</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>0.9663</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>0.4344</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0.1562</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>0.5094</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>0.1059</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>0.3918</v>
+      </c>
+      <c r="K135" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>0.4269</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>0.8697</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>0.6393</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>0.6519</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>0.2483</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>0.0864</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0.6415</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>0.1765</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>0.6894</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <v>0.2161</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>0.5618</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>0.5574</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>0.6519</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>0.3276</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>0.6038</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>0.3294</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>0.7727</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <v>0.1282</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>0.4883</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>0.7101</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>0.6519</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>0.6719</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>0.1483</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>0.2925</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>0.3962</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>0.2863</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <v>0.8788</v>
+      </c>
+      <c r="K138" s="0" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="L138" s="0" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>0.5348</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>0.7541</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>0.8101</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>0.8281</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>0.1448</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>0.3426</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>0.1698</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>0.3294</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <v>0.7922</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <v>0.0549</v>
+      </c>
+      <c r="L139" s="0" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>0.4971</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>0.2607</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>0.8607</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>0.9051</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0.7188</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>0.4207</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>0.2618</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>0.2453</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <v>0.6299</v>
+      </c>
+      <c r="K140" s="0" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="L140" s="0" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>0.5322</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>0.5753</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>0.4754</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>0.2828</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0.9057</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>0.5725</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L141" s="0" t="n">
+        <v>0.0879</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>0.3421</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>0.1236</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>0.3279</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0.5156</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>0.1724</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>0.0669</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>0.7547</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>0.3882</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <v>0.684</v>
+      </c>
+      <c r="K142" s="0" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="L142" s="0" t="n">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>0.5146</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>0.5082</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>0.6835</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>0.0808</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0.9057</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>0.4471</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <v>0.7165</v>
+      </c>
+      <c r="K143" s="0" t="n">
+        <v>0.0659</v>
+      </c>
+      <c r="L143" s="0" t="n">
+        <v>0.0769</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>0.7105</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>0.7596</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>0.5574</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>0.5253</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0.2969</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0.2828</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>0.6604</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <v>0.8366</v>
+      </c>
+      <c r="K144" s="0" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="L144" s="0" t="n">
+        <v>0.1355</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>0.3041</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>0.5146</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>0.7705</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0.4219</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>0.3172</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>0.0669</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0.9434</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>0.2863</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>0.6732</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <v>0.1685</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>0.2778</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>0.6944</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>0.5574</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>0.6203</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0.2812</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>0.4552</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>0.1616</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>0.6981</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>0.2471</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>0.6894</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L146" s="0" t="n">
+        <v>0.1136</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>0.5663</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>0.6885</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0.5781</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>0.2931</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>0.0613</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>0.6981</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>0.1529</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <v>0.4978</v>
+      </c>
+      <c r="K147" s="0" t="n">
+        <v>0.4615</v>
+      </c>
+      <c r="L147" s="0" t="n">
+        <v>0.2015</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>0.4211</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>0.5685</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>0.7213</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>0.6835</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>0.0724</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0.8868</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <v>0.4654</v>
+      </c>
+      <c r="K148" s="0" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="L148" s="0" t="n">
+        <v>0.3077</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>0.4532</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>0.5328</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>0.1003</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0.5094</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>0.2078</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <v>0.4329</v>
+      </c>
+      <c r="K149" s="0" t="n">
+        <v>0.1538</v>
+      </c>
+      <c r="L149" s="0" t="n">
+        <v>0.1758</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>0.693</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>0.4539</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>0.6835</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>0.1276</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>0.0947</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0.5283</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>0.2431</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <v>0.8983</v>
+      </c>
+      <c r="K150" s="0" t="n">
+        <v>0.1758</v>
+      </c>
+      <c r="L150" s="0" t="n">
+        <v>0.1502</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>0.6784</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>0.8135</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>0.7152</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0.2812</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>0.1034</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>0.0362</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>0.7358</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>0.2902</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <v>0.5779</v>
+      </c>
+      <c r="K151" s="0" t="n">
+        <v>0.2637</v>
+      </c>
+      <c r="L151" s="0" t="n">
+        <v>0.1758</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>0.4123</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>0.5253</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>0.2812</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>0.1724</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>0.0891</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>0.5094</v>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>0.2196</v>
+      </c>
+      <c r="J152" s="0" t="n">
+        <v>0.9719</v>
+      </c>
+      <c r="K152" s="0" t="n">
+        <v>0.1978</v>
+      </c>
+      <c r="L152" s="0" t="n">
+        <v>0.1758</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>0.6345</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>0.4135</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>0.8115</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>0.8418</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>0.5469</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>0.1966</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>0.1393</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>0.4906</v>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>0.4431</v>
+      </c>
+      <c r="J153" s="0" t="n">
+        <v>0.7987</v>
+      </c>
+      <c r="K153" s="0" t="n">
+        <v>0.2198</v>
+      </c>
+      <c r="L153" s="0" t="n">
+        <v>0.1941</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>0.5819</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>0.8674</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>0.9508</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>0.8734</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>0.6562</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>0.2642</v>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="J154" s="0" t="n">
+        <v>0.7814</v>
+      </c>
+      <c r="K154" s="0" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="L154" s="0" t="n">
+        <v>0.2381</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>0.5146</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>0.5082</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>0.4937</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>0.4062</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>0.0931</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>0.0418</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>0.5094</v>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="J155" s="0" t="n">
+        <v>0.4567</v>
+      </c>
+      <c r="K155" s="0" t="n">
+        <v>0.1319</v>
+      </c>
+      <c r="L155" s="0" t="n">
+        <v>0.2051</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>0.3977</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>0.3708</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>0.4754</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>0.5253</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>0.0474</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>0.6604</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>0.0902</v>
+      </c>
+      <c r="J156" s="0" t="n">
+        <v>0.9329</v>
+      </c>
+      <c r="K156" s="0" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="L156" s="0" t="n">
+        <v>0.1319</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>0.8041</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>0.3978</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>0.6393</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>0.3281</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>0.2414</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>0.1003</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>0.5849</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>0.3255</v>
+      </c>
+      <c r="J157" s="0" t="n">
+        <v>0.9113</v>
+      </c>
+      <c r="K157" s="0" t="n">
+        <v>0.0879</v>
+      </c>
+      <c r="L157" s="0" t="n">
+        <v>0.1612</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>0.5819</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>0.7124</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>0.6393</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>0.7468</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>0.2828</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>0.1142</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>0.566</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>0.3922</v>
+      </c>
+      <c r="J158" s="0" t="n">
+        <v>0.6515</v>
+      </c>
+      <c r="K158" s="0" t="n">
+        <v>0.1758</v>
+      </c>
+      <c r="L158" s="0" t="n">
+        <v>0.1062</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>0.5439</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>0.7955</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>0.7812</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>0.2103</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>0.0975</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>0.566</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>0.3686</v>
+      </c>
+      <c r="J159" s="0" t="n">
+        <v>0.9654</v>
+      </c>
+      <c r="K159" s="0" t="n">
+        <v>0.0549</v>
+      </c>
+      <c r="L159" s="0" t="n">
+        <v>0.1062</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>0.5146</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>0.4157</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>0.5492</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>0.7812</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>0.0947</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>0.7547</v>
+      </c>
+      <c r="I160" s="0" t="n">
+        <v>0.4118</v>
+      </c>
+      <c r="J160" s="0" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="K160" s="0" t="n">
+        <v>0.0659</v>
+      </c>
+      <c r="L160" s="0" t="n">
+        <v>0.1282</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>0.7953</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>0.7551</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>0.8525</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>0.8418</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>0.4062</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>0.8113</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>0.3686</v>
+      </c>
+      <c r="J161" s="0" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="K161" s="0" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="L161" s="0" t="n">
+        <v>0.1209</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
